--- a/output/GIANT_26525548000149.xlsx
+++ b/output/GIANT_26525548000149.xlsx
@@ -922,10 +922,10 @@
         <v>44165</v>
       </c>
       <c r="B49">
-        <v>0.55650008</v>
+        <v>0.5530141900000001</v>
       </c>
       <c r="C49">
-        <v>0.001850465667345702</v>
+        <v>-0.0003932480109503089</v>
       </c>
     </row>
   </sheetData>

--- a/output/GIANT_26525548000149.xlsx
+++ b/output/GIANT_26525548000149.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>GIANT ZARATHUSTRA II FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,546 +383,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42735</v>
       </c>
       <c r="B2">
-        <v>0.01832444999999994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42766</v>
       </c>
       <c r="B3">
-        <v>0.05251176999999996</v>
-      </c>
-      <c r="C3">
         <v>0.03357212919713359</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42794</v>
       </c>
       <c r="B4">
-        <v>0.1030496400000001</v>
-      </c>
-      <c r="C4">
         <v>0.04801644165936514</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42825</v>
       </c>
       <c r="B5">
-        <v>0.1144433199999999</v>
-      </c>
-      <c r="C5">
         <v>0.01032925408506524</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42855</v>
       </c>
       <c r="B6">
-        <v>0.1275871099999999</v>
-      </c>
-      <c r="C6">
         <v>0.01179404081312985</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42886</v>
       </c>
       <c r="B7">
-        <v>0.02791440999999995</v>
-      </c>
-      <c r="C7">
         <v>-0.08839467843863513</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42916</v>
       </c>
       <c r="B8">
-        <v>0.02752018000000001</v>
-      </c>
-      <c r="C8">
         <v>-0.0003835241496419339</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42947</v>
       </c>
       <c r="B9">
-        <v>0.09566647000000006</v>
-      </c>
-      <c r="C9">
         <v>0.06632112081730601</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42978</v>
       </c>
       <c r="B10">
-        <v>0.0982580099999999</v>
-      </c>
-      <c r="C10">
         <v>0.002365263582447596</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43008</v>
       </c>
       <c r="B11">
-        <v>0.12116159</v>
-      </c>
-      <c r="C11">
         <v>0.02085446205851049</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43039</v>
       </c>
       <c r="B12">
-        <v>0.1430104000000001</v>
-      </c>
-      <c r="C12">
         <v>0.01948765476348502</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43069</v>
       </c>
       <c r="B13">
-        <v>0.13583674</v>
-      </c>
-      <c r="C13">
         <v>-0.00627611087353197</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43100</v>
       </c>
       <c r="B14">
-        <v>0.1567162200000001</v>
-      </c>
-      <c r="C14">
         <v>0.01838246577584735</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43131</v>
       </c>
       <c r="B15">
-        <v>0.14692865</v>
-      </c>
-      <c r="C15">
         <v>-0.008461513576770052</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43159</v>
       </c>
       <c r="B16">
-        <v>0.1495302599999999</v>
-      </c>
-      <c r="C16">
         <v>0.002268327676704152</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43190</v>
       </c>
       <c r="B17">
-        <v>0.17434778</v>
-      </c>
-      <c r="C17">
         <v>0.02158927073394312</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43220</v>
       </c>
       <c r="B18">
-        <v>0.16421106</v>
-      </c>
-      <c r="C18">
         <v>-0.008631787084401821</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43251</v>
       </c>
       <c r="B19">
-        <v>0.20273987</v>
-      </c>
-      <c r="C19">
         <v>0.03309435146579021</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43281</v>
       </c>
       <c r="B20">
-        <v>0.27633135</v>
-      </c>
-      <c r="C20">
         <v>0.06118653071673763</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43312</v>
       </c>
       <c r="B21">
-        <v>0.23630788</v>
-      </c>
-      <c r="C21">
         <v>-0.03135821273997541</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43343</v>
       </c>
       <c r="B22">
-        <v>0.3031714700000001</v>
-      </c>
-      <c r="C22">
         <v>0.0540832838499743</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43373</v>
       </c>
       <c r="B23">
-        <v>0.2773460800000001</v>
-      </c>
-      <c r="C23">
         <v>-0.01981733838909172</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43404</v>
       </c>
       <c r="B24">
-        <v>0.3270536500000001</v>
-      </c>
-      <c r="C24">
         <v>0.03891472387812089</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43434</v>
       </c>
       <c r="B25">
-        <v>0.32417473</v>
-      </c>
-      <c r="C25">
         <v>-0.002169407393589617</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43465</v>
       </c>
       <c r="B26">
-        <v>0.3361575699999999</v>
-      </c>
-      <c r="C26">
         <v>0.009049289137242456</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43496</v>
       </c>
       <c r="B27">
-        <v>0.3702107100000001</v>
-      </c>
-      <c r="C27">
         <v>0.02548587140063141</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43524</v>
       </c>
       <c r="B28">
-        <v>0.3271164099999999</v>
-      </c>
-      <c r="C28">
         <v>-0.0314508561971466</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43555</v>
       </c>
       <c r="B29">
-        <v>0.30412672</v>
-      </c>
-      <c r="C29">
         <v>-0.01732303950638359</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43585</v>
       </c>
       <c r="B30">
-        <v>0.29286108</v>
-      </c>
-      <c r="C30">
         <v>-0.008638455011488411</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43616</v>
       </c>
       <c r="B31">
-        <v>0.30775496</v>
-      </c>
-      <c r="C31">
         <v>0.01152009309461155</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43646</v>
       </c>
       <c r="B32">
-        <v>0.36363594</v>
-      </c>
-      <c r="C32">
         <v>0.04273046687584348</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43677</v>
       </c>
       <c r="B33">
-        <v>0.3982419800000001</v>
-      </c>
-      <c r="C33">
         <v>0.02537777055069412</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43708</v>
       </c>
       <c r="B34">
-        <v>0.41509876</v>
-      </c>
-      <c r="C34">
         <v>0.01205569582455235</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43738</v>
       </c>
       <c r="B35">
-        <v>0.4534341399999999</v>
-      </c>
-      <c r="C35">
         <v>0.02709025057728121</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43769</v>
       </c>
       <c r="B36">
-        <v>0.4707992999999999</v>
-      </c>
-      <c r="C36">
         <v>0.01194767586785872</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43799</v>
       </c>
       <c r="B37">
-        <v>0.47091631</v>
-      </c>
-      <c r="C37">
         <v>7.955538189352573e-05</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43830</v>
       </c>
       <c r="B38">
-        <v>0.48361627</v>
-      </c>
-      <c r="C38">
         <v>0.008634046623631431</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43861</v>
       </c>
       <c r="B39">
-        <v>0.51259641</v>
-      </c>
-      <c r="C39">
         <v>0.01953344714937644</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43890</v>
       </c>
       <c r="B40">
-        <v>0.5317858499999999</v>
-      </c>
-      <c r="C40">
         <v>0.01268642439789991</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43921</v>
       </c>
       <c r="B41">
-        <v>0.5634659500000001</v>
-      </c>
-      <c r="C41">
         <v>0.02068180744717041</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43951</v>
       </c>
       <c r="B42">
-        <v>0.59207677</v>
-      </c>
-      <c r="C42">
         <v>0.01829961183356765</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43982</v>
       </c>
       <c r="B43">
-        <v>0.6001467199999999</v>
-      </c>
-      <c r="C43">
         <v>0.005068819639897137</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>44012</v>
       </c>
       <c r="B44">
-        <v>0.6000524599999999</v>
-      </c>
-      <c r="C44">
         <v>-5.890709821909645e-05</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>44043</v>
       </c>
       <c r="B45">
-        <v>0.61579743</v>
-      </c>
-      <c r="C45">
         <v>0.009840283611701084</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>44074</v>
       </c>
       <c r="B46">
-        <v>0.6089473299999999</v>
-      </c>
-      <c r="C46">
         <v>-0.00423945469451581</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>44104</v>
       </c>
       <c r="B47">
-        <v>0.56522216</v>
-      </c>
-      <c r="C47">
         <v>-0.02717625939936763</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>44135</v>
       </c>
       <c r="B48">
-        <v>0.55362515</v>
-      </c>
-      <c r="C48">
         <v>-0.007409178260036953</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>44165</v>
       </c>
       <c r="B49">
-        <v>0.5530141900000001</v>
-      </c>
-      <c r="C49">
-        <v>-0.0003932480109503089</v>
+        <v>-0.004470080829986456</v>
       </c>
     </row>
   </sheetData>
